--- a/miguel/test-data_1.xlsx
+++ b/miguel/test-data_1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mudassir.g\AppData\Local\Temp\scp04432\home\ec2-user\docker\partner-ingest-citspl\docker\mounts\ingest-reputation-booster\test-files\miguel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\miguel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF566C1-751E-4344-8350-FA167BAFEB56}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98CA0531-69EC-486E-8868-54F5B49F7314}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="315" windowWidth="15330" windowHeight="10890" xr2:uid="{ACC203DA-3E03-4F1B-8448-DB8AAEC24982}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="15375" windowHeight="7875" xr2:uid="{ACC203DA-3E03-4F1B-8448-DB8AAEC24982}"/>
   </bookViews>
   <sheets>
     <sheet name="test-data" sheetId="1" r:id="rId1"/>
@@ -63,25 +63,25 @@
     <t>Product</t>
   </si>
   <si>
-    <t>mdsr.shrf@gmail.com</t>
-  </si>
-  <si>
     <t>Miguel's California Mexican Cocina - Corona</t>
   </si>
   <si>
-    <t>Mudassir</t>
-  </si>
-  <si>
-    <t>Shariff</t>
-  </si>
-  <si>
-    <t>mdsr@live.in</t>
-  </si>
-  <si>
-    <t>Mdsr</t>
-  </si>
-  <si>
-    <t>Shrf</t>
+    <t>kesavan@congruentglobal.com</t>
+  </si>
+  <si>
+    <t>sathish.j@congruentglobal.com</t>
+  </si>
+  <si>
+    <t>Kesavan</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Sathish</t>
+  </si>
+  <si>
+    <t>J</t>
   </si>
 </sst>
 </file>
@@ -467,7 +467,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,20 +514,20 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2">
         <v>67561</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
         <v>0</v>
@@ -538,13 +538,13 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>67561</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
